--- a/excel/finished/原供料/12.原料车间生产运行记录表.xlsx
+++ b/excel/finished/原供料/12.原料车间生产运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="原料车间生产运行记录表" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -565,29 +565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -605,15 +582,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,9 +610,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,35 +669,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,13 +694,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -720,19 +720,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,43 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +798,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,37 +870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,37 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,15 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1064,17 +1055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,7 +1067,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1105,11 +1101,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,7 +1112,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,23 +1146,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1161,135 +1161,135 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,16 +1336,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1392,11 +1392,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1440,6 +1452,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1800,11 +1818,11 @@
   <sheetPr/>
   <dimension ref="A2:IV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:Y27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="14" width="7.875" customWidth="1"/>
@@ -1895,7 +1913,7 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
-      <c r="Y4" s="46"/>
+      <c r="Y4" s="50"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="2:25">
       <c r="B5" s="9" t="s">
@@ -1925,7 +1943,7 @@
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
-      <c r="Y5" s="47"/>
+      <c r="Y5" s="51"/>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:25">
       <c r="B6" s="10" t="s">
@@ -1961,7 +1979,7 @@
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
       <c r="X6" s="27"/>
-      <c r="Y6" s="47"/>
+      <c r="Y6" s="51"/>
     </row>
     <row r="7" ht="21.75" customHeight="1" spans="2:25">
       <c r="B7" s="10"/>
@@ -2014,12 +2032,12 @@
         <v>13</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="41" t="s">
+      <c r="V7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="48"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="52"/>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:256">
       <c r="A8" s="1"/>
@@ -2473,7 +2491,7 @@
         <v/>
       </c>
       <c r="X10" s="10"/>
-      <c r="Y10" s="49" t="str">
+      <c r="Y10" s="53" t="str">
         <f>IF(_ygl1_day_shift!K2="","",_ygl1_day_shift!K2)</f>
         <v/>
       </c>
@@ -2556,7 +2574,7 @@
         <v/>
       </c>
       <c r="X11" s="10"/>
-      <c r="Y11" s="49" t="str">
+      <c r="Y11" s="53" t="str">
         <f>IF(_ygl1_day_shift!K3="","",_ygl1_day_shift!K3)</f>
         <v/>
       </c>
@@ -2791,7 +2809,7 @@
         <v/>
       </c>
       <c r="X14" s="10"/>
-      <c r="Y14" s="49" t="str">
+      <c r="Y14" s="53" t="str">
         <f>IF(_ygl2_day_shift!K2="","",_ygl2_day_shift!K2)</f>
         <v/>
       </c>
@@ -2874,7 +2892,7 @@
         <v/>
       </c>
       <c r="X15" s="10"/>
-      <c r="Y15" s="49" t="str">
+      <c r="Y15" s="53" t="str">
         <f>IF(_ygl2_day_shift!K3="","",_ygl2_day_shift!K3)</f>
         <v/>
       </c>
@@ -2957,7 +2975,7 @@
         <v/>
       </c>
       <c r="X16" s="10"/>
-      <c r="Y16" s="49" t="str">
+      <c r="Y16" s="53" t="str">
         <f>IF(_ygl2_day_shift!K4="","",_ygl2_day_shift!K4)</f>
         <v/>
       </c>
@@ -3019,7 +3037,7 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="50"/>
+      <c r="Y17" s="54"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" spans="2:25">
       <c r="B18" s="10" t="str">
@@ -3075,7 +3093,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
       <c r="X18" s="32"/>
-      <c r="Y18" s="51"/>
+      <c r="Y18" s="55"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" spans="2:25">
       <c r="B19" s="10" t="str">
@@ -3131,7 +3149,7 @@
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
-      <c r="Y19" s="51"/>
+      <c r="Y19" s="55"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" spans="2:25">
       <c r="B20" s="10" t="str">
@@ -3187,7 +3205,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
-      <c r="Y20" s="51"/>
+      <c r="Y20" s="55"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:25">
       <c r="B21" s="10" t="str">
@@ -3243,7 +3261,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
-      <c r="Y21" s="51"/>
+      <c r="Y21" s="55"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" spans="2:25">
       <c r="B22" s="10" t="str">
@@ -3299,7 +3317,7 @@
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
-      <c r="Y22" s="51"/>
+      <c r="Y22" s="55"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" spans="2:25">
       <c r="B23" s="10" t="str">
@@ -3355,7 +3373,7 @@
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
-      <c r="Y23" s="51"/>
+      <c r="Y23" s="55"/>
     </row>
     <row r="24" ht="21.75" customHeight="1" spans="2:25">
       <c r="B24" s="10" t="str">
@@ -3411,7 +3429,7 @@
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
       <c r="X24" s="32"/>
-      <c r="Y24" s="51"/>
+      <c r="Y24" s="55"/>
     </row>
     <row r="25" ht="21.75" customHeight="1" spans="2:25">
       <c r="B25" s="10" t="str">
@@ -3467,7 +3485,7 @@
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
       <c r="X25" s="32"/>
-      <c r="Y25" s="51"/>
+      <c r="Y25" s="55"/>
     </row>
     <row r="26" ht="21.75" customHeight="1" spans="2:25">
       <c r="B26" s="10" t="str">
@@ -3523,7 +3541,7 @@
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
       <c r="X26" s="32"/>
-      <c r="Y26" s="51"/>
+      <c r="Y26" s="55"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" spans="2:25">
       <c r="B27" s="10" t="str">
@@ -3579,7 +3597,7 @@
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
       <c r="X27" s="32"/>
-      <c r="Y27" s="51"/>
+      <c r="Y27" s="55"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" spans="2:25">
       <c r="B28" s="10" t="str">
@@ -3631,21 +3649,21 @@
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="43" t="s">
+      <c r="U28" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="44" t="str">
+      <c r="V28" s="48" t="str">
         <f>IF(_ygl3_day_shift!B2="","",_ygl3_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="W28" s="43" t="s">
+      <c r="W28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="49" t="str">
         <f>IF(_ygl3_day_shift!C2="","",_ygl3_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="Y28" s="52"/>
+      <c r="Y28" s="56"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:25">
       <c r="B29" s="15" t="str">
@@ -3691,20 +3709,20 @@
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="29" t="str">
+      <c r="O29" s="36" t="str">
         <f>IF(_ygl4_day_shift!A2="","",_ygl4_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="50"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="57"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" spans="2:25">
       <c r="B30" s="15" t="str">
@@ -3750,17 +3768,17 @@
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="51"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="58"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" spans="2:25">
       <c r="B31" s="15" t="str">
@@ -3806,17 +3824,17 @@
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="51"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="58"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" spans="2:25">
       <c r="B32" s="15" t="str">
@@ -3862,17 +3880,17 @@
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="51"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="58"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" spans="2:25">
       <c r="B33" s="15" t="str">
@@ -3918,17 +3936,17 @@
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="51"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="58"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" spans="2:25">
       <c r="B34" s="14" t="str">
@@ -3974,17 +3992,17 @@
       <c r="L34" s="14"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="51"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="58"/>
     </row>
     <row r="35" ht="21.75" customHeight="1" spans="2:25">
       <c r="B35" s="14" t="str">
@@ -4030,17 +4048,17 @@
       <c r="L35" s="14"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="51"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="58"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" spans="2:25">
       <c r="B36" s="14" t="str">
@@ -4086,17 +4104,17 @@
       <c r="L36" s="14"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="51"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="58"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" spans="2:25">
       <c r="B37" s="14" t="str">
@@ -4142,17 +4160,17 @@
       <c r="L37" s="14"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="51"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="58"/>
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="2:25">
       <c r="B38" s="14" t="str">
@@ -4198,17 +4216,17 @@
       <c r="L38" s="14"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="51"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="58"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="2:25">
       <c r="B39" s="14" t="str">
@@ -4254,17 +4272,17 @@
       <c r="L39" s="14"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="51"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="58"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" spans="2:25">
       <c r="B40" s="14" t="str">
@@ -4316,21 +4334,21 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
-      <c r="U40" s="43" t="s">
+      <c r="U40" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V40" s="44" t="str">
+      <c r="V40" s="48" t="str">
         <f>IF(_ygl4_day_shift!B2="","",_ygl4_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="W40" s="43" t="s">
+      <c r="W40" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X40" s="45" t="str">
+      <c r="X40" s="49" t="str">
         <f>IF(_ygl4_day_shift!C4="","",_ygl4_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="Y40" s="52"/>
+      <c r="Y40" s="56"/>
     </row>
     <row r="41" ht="21.75" customHeight="1" spans="2:25">
       <c r="B41" s="16" t="s">
@@ -4348,20 +4366,20 @@
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
-      <c r="O41" s="29" t="str">
+      <c r="O41" s="36" t="str">
         <f>IF(_ygl5_day_shift!A2="","",_ygl5_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="50"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="57"/>
     </row>
     <row r="42" ht="21.75" customHeight="1" spans="2:25">
       <c r="B42" s="17" t="str">
@@ -4379,18 +4397,18 @@
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="51"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="58"/>
     </row>
     <row r="43" ht="21.75" customHeight="1" spans="2:25">
       <c r="B43" s="19"/>
@@ -4405,18 +4423,18 @@
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="51"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="58"/>
     </row>
     <row r="44" ht="21.75" customHeight="1" spans="2:25">
       <c r="B44" s="19"/>
@@ -4431,18 +4449,18 @@
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="51"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="58"/>
     </row>
     <row r="45" ht="21.75" customHeight="1" spans="2:25">
       <c r="B45" s="19"/>
@@ -4457,18 +4475,18 @@
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="51"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="58"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:25">
       <c r="B46" s="19"/>
@@ -4483,18 +4501,18 @@
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="51"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="58"/>
     </row>
     <row r="47" ht="21.75" customHeight="1" spans="2:25">
       <c r="B47" s="19"/>
@@ -4509,18 +4527,18 @@
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="51"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="58"/>
     </row>
     <row r="48" ht="21.75" customHeight="1" spans="2:25">
       <c r="B48" s="19"/>
@@ -4535,18 +4553,18 @@
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="51"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="58"/>
     </row>
     <row r="49" ht="21.75" customHeight="1" spans="2:25">
       <c r="B49" s="19"/>
@@ -4561,18 +4579,18 @@
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="51"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="58"/>
     </row>
     <row r="50" ht="21.75" customHeight="1" spans="2:25">
       <c r="B50" s="19"/>
@@ -4587,18 +4605,18 @@
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="51"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="58"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="2:25">
       <c r="B51" s="19"/>
@@ -4613,18 +4631,18 @@
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="51"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="58"/>
     </row>
     <row r="52" ht="21.75" customHeight="1" spans="2:25">
       <c r="B52" s="21"/>
@@ -4636,7 +4654,7 @@
         <v>49</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="38" t="str">
+      <c r="I52" s="42" t="str">
         <f>IF(_ygl6_day_shift!B2="","",_ygl6_day_shift!B2)</f>
         <v/>
       </c>
@@ -4644,33 +4662,33 @@
       <c r="K52" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L52" s="39" t="str">
+      <c r="L52" s="43" t="str">
         <f>IF(_ygl6_day_shift!C2="","",_ygl6_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="40"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="44"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="43" t="s">
+      <c r="U52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V52" s="44" t="str">
+      <c r="V52" s="48" t="str">
         <f>IF(_ygl5_day_shift!B2="","",_ygl5_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="W52" s="43" t="s">
+      <c r="W52" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X52" s="45" t="str">
+      <c r="X52" s="49" t="str">
         <f>IF(_ygl5_day_shift!C2="","",_ygl5_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="Y52" s="52"/>
+      <c r="Y52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4715,7 +4733,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -4764,7 +4782,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="21.875" customWidth="1"/>
@@ -4820,7 +4838,7 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -4868,7 +4886,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4896,7 +4914,7 @@
       <selection activeCell="G18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4924,7 +4942,7 @@
       <selection activeCell="C11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4952,7 +4970,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
